--- a/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
+++ b/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
@@ -12,7 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>과목</t>
+  </si>
+  <si>
+    <t>할 일</t>
+  </si>
+  <si>
+    <t>마감 기한</t>
+  </si>
+  <si>
+    <t>실제 마감일</t>
+  </si>
+  <si>
+    <t>완료 여부</t>
+  </si>
+  <si>
+    <t>중요도</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,13 +74,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
+++ b/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>과목</t>
   </si>
@@ -30,6 +30,21 @@
   </si>
   <si>
     <t>중요도</t>
+  </si>
+  <si>
+    <t>운영체제</t>
+  </si>
+  <si>
+    <t>�Է����ּ���.zzzzzzzz</t>
+  </si>
+  <si>
+    <t>����</t>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -64,19 +79,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -100,6 +115,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
+++ b/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>과목</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>알고리즘</t>
+  </si>
+  <si>
+    <t>�Է����ּ���qq</t>
   </si>
 </sst>
 </file>
@@ -89,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -135,6 +141,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
+++ b/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="57">
   <si>
     <t>과목</t>
   </si>
@@ -51,6 +51,138 @@
   </si>
   <si>
     <t>�Է����ּ���qq</t>
+  </si>
+  <si>
+    <t>�Է����ּ���</t>
+  </si>
+  <si>
+    <t>준비</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>�Է����ּ���ttt</t>
+  </si>
+  <si>
+    <t>진행</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>입력해주세요zz</t>
+  </si>
+  <si>
+    <t>2월3일</t>
+  </si>
+  <si>
+    <t>2월2일</t>
+  </si>
+  <si>
+    <t>입력해주세요d</t>
+  </si>
+  <si>
+    <t>1월3일</t>
+  </si>
+  <si>
+    <t>입력해주세요s</t>
+  </si>
+  <si>
+    <t>입력해주세요z</t>
+  </si>
+  <si>
+    <t>4월4일</t>
+  </si>
+  <si>
+    <t>1월2일</t>
+  </si>
+  <si>
+    <t>입력해주세요wss</t>
+  </si>
+  <si>
+    <t>5월6일</t>
+  </si>
+  <si>
+    <t>4월2일</t>
+  </si>
+  <si>
+    <t>입력해주세요xxx</t>
+  </si>
+  <si>
+    <t>2월4일</t>
+  </si>
+  <si>
+    <t>입력해주세요zzz</t>
+  </si>
+  <si>
+    <t>3월2일</t>
+  </si>
+  <si>
+    <t>입력해주세요sz</t>
+  </si>
+  <si>
+    <t>3월3일</t>
+  </si>
+  <si>
+    <t>2월5일</t>
+  </si>
+  <si>
+    <t>입력해주세요sss</t>
+  </si>
+  <si>
+    <t>입력해주세요aasd</t>
+  </si>
+  <si>
+    <t>5월2일</t>
+  </si>
+  <si>
+    <t>입력해주세요ss</t>
+  </si>
+  <si>
+    <t>입력해주세요dd</t>
+  </si>
+  <si>
+    <t>4월5일</t>
+  </si>
+  <si>
+    <t>4월3일</t>
+  </si>
+  <si>
+    <t>입력해주세요asdasd</t>
+  </si>
+  <si>
+    <t>입력해주세요aa</t>
+  </si>
+  <si>
+    <t>3월4일</t>
+  </si>
+  <si>
+    <t>아아나암ㄴㅇ</t>
+  </si>
+  <si>
+    <t>한울</t>
+  </si>
+  <si>
+    <t>수정</t>
+  </si>
+  <si>
+    <t>3월5일</t>
+  </si>
+  <si>
+    <t>입력해주세요</t>
+  </si>
+  <si>
+    <t>월일</t>
+  </si>
+  <si>
+    <t>입력해주세요qq</t>
+  </si>
+  <si>
+    <t>7월31일</t>
   </si>
 </sst>
 </file>
@@ -95,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -126,39 +258,499 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
+++ b/Subject_Dir/ToDolist_Dir/Trashcan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="63">
   <si>
     <t>과목</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>7월31일</t>
+  </si>
+  <si>
+    <t>입력해주세요e</t>
+  </si>
+  <si>
+    <t>8월31일</t>
+  </si>
+  <si>
+    <t>4월1일</t>
+  </si>
+  <si>
+    <t>입력해주세요sd</t>
+  </si>
+  <si>
+    <t>11월26일</t>
+  </si>
+  <si>
+    <t>입력해주세요ee</t>
   </si>
 </sst>
 </file>
@@ -227,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -753,6 +771,206 @@
         <v>16</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
